--- a/import/prep/excel/63-7ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กพ63 (1-30เมย63).xlsx
+++ b/import/prep/excel/63-7ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กพ63 (1-30เมย63).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Desktop/ข้อมูล อจน./ทะเบียนคุมใบแจ้งหนี้+ใบเสร็จ/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8FE6DE-1289-A448-93BA-4E4378301C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7193B9-DA4A-8445-9228-09D5F0D18B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$O$842</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$S$253</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11489,12 +11489,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -11576,7 +11576,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11628,6 +11628,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11746,12 +11752,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11763,23 +11769,23 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -11790,13 +11796,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11808,47 +11814,47 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11860,16 +11866,16 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11879,13 +11885,13 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11923,7 +11929,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11935,14 +11941,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11951,15 +11957,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11974,8 +11980,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11987,47 +11993,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12045,13 +12051,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12060,47 +12066,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12112,13 +12118,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12131,55 +12167,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="เครื่องหมายจุลภาค 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="เครื่องหมายจุลภาค 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12456,7 +12480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O855"/>
   <sheetViews>
     <sheetView topLeftCell="A818" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -52563,10 +52587,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L252" sqref="L252"/>
     </sheetView>
   </sheetViews>
@@ -64814,11 +64838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB843"/>
   <sheetViews>
-    <sheetView topLeftCell="L230" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P245" sqref="P245"/>
+    <sheetView topLeftCell="A218" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164:P164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -64849,24 +64873,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="151" t="s">
         <v>3446</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
       <c r="Q1" s="59"/>
       <c r="R1" s="60"/>
       <c r="S1" s="61"/>
@@ -64910,7 +64934,7 @@
       <c r="C3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="152" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="135" t="s">
@@ -64920,47 +64944,47 @@
       <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="143" t="s">
+      <c r="H3" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="I3" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="144" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="154" t="s">
+      <c r="P3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="156" t="s">
+      <c r="Q3" s="148" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="70"/>
-      <c r="S3" s="158">
+      <c r="S3" s="150">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="152" t="s">
+      <c r="T3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="153" t="s">
+      <c r="V3" s="143" t="s">
         <v>20</v>
       </c>
     </row>
@@ -64968,29 +64992,29 @@
       <c r="A4" s="135"/>
       <c r="B4" s="135"/>
       <c r="C4" s="135"/>
-      <c r="D4" s="142"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="135"/>
       <c r="F4" s="71"/>
       <c r="G4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
       <c r="O4" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="157"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="149"/>
       <c r="R4" s="70"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="153"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="143"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="56">
@@ -67766,55 +67790,55 @@
       <c r="T50" s="83"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A51" s="56">
+      <c r="A51" s="159">
         <v>47</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="160" t="s">
         <v>3788</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="161" t="s">
         <v>3497</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="160" t="s">
         <v>1812</v>
       </c>
-      <c r="E51" s="74" t="s">
+      <c r="E51" s="162" t="s">
         <v>1813</v>
       </c>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="162" t="s">
         <v>1814</v>
       </c>
-      <c r="G51" s="119" t="s">
+      <c r="G51" s="160" t="s">
         <v>3222</v>
       </c>
-      <c r="H51" s="120">
+      <c r="H51" s="163">
         <v>105</v>
       </c>
-      <c r="I51" s="121">
+      <c r="I51" s="164">
         <v>7.35</v>
       </c>
-      <c r="J51" s="122"/>
-      <c r="K51" s="75">
+      <c r="J51" s="165"/>
+      <c r="K51" s="164">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L51" s="75">
+      <c r="L51" s="164">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="166">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N51" s="75">
+      <c r="N51" s="164">
         <f t="shared" si="7"/>
         <v>7.35</v>
       </c>
-      <c r="O51" s="75">
+      <c r="O51" s="164">
         <f t="shared" si="8"/>
         <v>112.35</v>
       </c>
-      <c r="P51" s="75">
+      <c r="P51" s="164">
         <v>0</v>
       </c>
       <c r="Q51" s="77"/>
@@ -67823,57 +67847,57 @@
       <c r="T51" s="81"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A52" s="56">
+      <c r="A52" s="159">
         <v>48</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="160" t="s">
         <v>3788</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="161" t="s">
         <v>3498</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="160" t="s">
         <v>1812</v>
       </c>
-      <c r="E52" s="74" t="s">
+      <c r="E52" s="162" t="s">
         <v>1813</v>
       </c>
-      <c r="F52" s="74" t="s">
+      <c r="F52" s="162" t="s">
         <v>1814</v>
       </c>
-      <c r="G52" s="119" t="s">
+      <c r="G52" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="120">
-        <v>0</v>
-      </c>
-      <c r="I52" s="121">
-        <v>0</v>
-      </c>
-      <c r="J52" s="122">
+      <c r="H52" s="163">
+        <v>0</v>
+      </c>
+      <c r="I52" s="164">
+        <v>0</v>
+      </c>
+      <c r="J52" s="165">
         <v>25</v>
       </c>
-      <c r="K52" s="75">
+      <c r="K52" s="164">
         <f t="shared" si="4"/>
         <v>87.5</v>
       </c>
-      <c r="L52" s="75">
+      <c r="L52" s="164">
         <f t="shared" si="5"/>
         <v>6.12</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="166">
         <f t="shared" si="6"/>
         <v>93.62</v>
       </c>
-      <c r="N52" s="75">
+      <c r="N52" s="164">
         <f t="shared" si="7"/>
         <v>6.12</v>
       </c>
-      <c r="O52" s="75">
+      <c r="O52" s="164">
         <f t="shared" si="8"/>
         <v>93.62</v>
       </c>
-      <c r="P52" s="75">
+      <c r="P52" s="164">
         <v>0</v>
       </c>
       <c r="Q52" s="77"/>
@@ -68059,57 +68083,57 @@
       <c r="V55" s="83"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A56" s="56">
+      <c r="A56" s="159">
         <v>52</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="160" t="s">
         <v>3788</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="161" t="s">
         <v>3502</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="160" t="s">
         <v>1792</v>
       </c>
-      <c r="E56" s="74" t="s">
+      <c r="E56" s="162" t="s">
         <v>1793</v>
       </c>
-      <c r="F56" s="74" t="s">
+      <c r="F56" s="162" t="s">
         <v>1794</v>
       </c>
-      <c r="G56" s="119" t="s">
+      <c r="G56" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="H56" s="120">
-        <v>0</v>
-      </c>
-      <c r="I56" s="121">
-        <v>0</v>
-      </c>
-      <c r="J56" s="122">
+      <c r="H56" s="163">
+        <v>0</v>
+      </c>
+      <c r="I56" s="164">
+        <v>0</v>
+      </c>
+      <c r="J56" s="165">
         <v>6</v>
       </c>
-      <c r="K56" s="75">
+      <c r="K56" s="164">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="L56" s="75">
+      <c r="L56" s="164">
         <f t="shared" si="5"/>
         <v>1.47</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56" s="166">
         <f t="shared" si="6"/>
         <v>22.47</v>
       </c>
-      <c r="N56" s="75">
+      <c r="N56" s="164">
         <f t="shared" si="7"/>
         <v>1.47</v>
       </c>
-      <c r="O56" s="75">
+      <c r="O56" s="164">
         <f t="shared" si="8"/>
         <v>22.47</v>
       </c>
-      <c r="P56" s="75">
+      <c r="P56" s="164">
         <v>0</v>
       </c>
       <c r="Q56" s="84"/>
@@ -74600,57 +74624,57 @@
       <c r="V163" s="83"/>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A164" s="56">
+      <c r="A164" s="159">
         <v>160</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="160" t="s">
         <v>3791</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="161" t="s">
         <v>3610</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="160" t="s">
         <v>334</v>
       </c>
-      <c r="E164" s="74" t="s">
+      <c r="E164" s="162" t="s">
         <v>335</v>
       </c>
-      <c r="F164" s="74" t="s">
+      <c r="F164" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="G164" s="119" t="s">
+      <c r="G164" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="H164" s="120">
-        <v>0</v>
-      </c>
-      <c r="I164" s="121">
-        <v>0</v>
-      </c>
-      <c r="J164" s="122">
+      <c r="H164" s="163">
+        <v>0</v>
+      </c>
+      <c r="I164" s="164">
+        <v>0</v>
+      </c>
+      <c r="J164" s="165">
         <v>15</v>
       </c>
-      <c r="K164" s="75">
+      <c r="K164" s="164">
         <f t="shared" si="20"/>
         <v>52.5</v>
       </c>
-      <c r="L164" s="75">
+      <c r="L164" s="164">
         <f t="shared" si="21"/>
         <v>3.67</v>
       </c>
-      <c r="M164" s="6">
+      <c r="M164" s="166">
         <f t="shared" si="22"/>
         <v>56.17</v>
       </c>
-      <c r="N164" s="75">
+      <c r="N164" s="164">
         <f t="shared" si="23"/>
         <v>3.67</v>
       </c>
-      <c r="O164" s="75">
+      <c r="O164" s="164">
         <f t="shared" si="24"/>
         <v>56.17</v>
       </c>
-      <c r="P164" s="75">
+      <c r="P164" s="164">
         <v>0</v>
       </c>
       <c r="Q164" s="84"/>
@@ -79462,15 +79486,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -79481,17 +79496,26 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA689"/>
   <sheetViews>
-    <sheetView topLeftCell="F76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -79521,24 +79545,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="151" t="s">
         <v>3447</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
       <c r="Q1" s="59"/>
       <c r="R1" s="126"/>
       <c r="S1" s="110"/>
@@ -79582,7 +79606,7 @@
       <c r="C3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="152" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="135" t="s">
@@ -79592,47 +79616,47 @@
       <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="143" t="s">
+      <c r="H3" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="I3" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="144" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="154" t="s">
+      <c r="P3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="156" t="s">
+      <c r="Q3" s="148" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="128"/>
-      <c r="S3" s="158">
+      <c r="S3" s="150">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="152" t="s">
+      <c r="T3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="153" t="s">
+      <c r="V3" s="143" t="s">
         <v>20</v>
       </c>
     </row>
@@ -79640,29 +79664,29 @@
       <c r="A4" s="135"/>
       <c r="B4" s="135"/>
       <c r="C4" s="135"/>
-      <c r="D4" s="142"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="135"/>
       <c r="F4" s="112"/>
       <c r="G4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
       <c r="O4" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="157"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="149"/>
       <c r="R4" s="128"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="153"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="143"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="56">
@@ -79979,57 +80003,57 @@
       <c r="U9" s="81"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="56">
+      <c r="A10" s="159">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="160" t="s">
         <v>3787</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="161" t="s">
         <v>3708</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="160" t="s">
         <v>3007</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="162" t="s">
         <v>3008</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="162" t="s">
         <v>3798</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="75">
-        <v>0</v>
-      </c>
-      <c r="J10" s="76">
+      <c r="H10" s="163">
+        <v>0</v>
+      </c>
+      <c r="I10" s="164">
+        <v>0</v>
+      </c>
+      <c r="J10" s="165">
         <v>72</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="164">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="164">
         <f t="shared" ref="L10:L73" si="3">ROUNDDOWN(K10*7%,2)</f>
         <v>20.16</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="166">
         <f t="shared" ref="M10:M73" si="4">ROUNDDOWN(K10+L10,2)</f>
         <v>308.16000000000003</v>
       </c>
-      <c r="N10" s="75">
+      <c r="N10" s="164">
         <f t="shared" si="1"/>
         <v>20.16</v>
       </c>
-      <c r="O10" s="75">
+      <c r="O10" s="164">
         <f t="shared" si="2"/>
         <v>308.16000000000003</v>
       </c>
-      <c r="P10" s="75"/>
+      <c r="P10" s="164"/>
       <c r="Q10" s="77"/>
       <c r="R10" s="129"/>
     </row>
@@ -84895,15 +84919,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -84914,6 +84929,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/import/prep/excel/63-7ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กพ63 (1-30เมย63).xlsx
+++ b/import/prep/excel/63-7ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กพ63 (1-30เมย63).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7193B9-DA4A-8445-9228-09D5F0D18B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99B381-1FE0-2D40-B25D-6F14F17A0249}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$O$842</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$S$253</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11576,7 +11576,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11628,12 +11628,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11757,7 +11751,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12125,36 +12119,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12173,30 +12137,42 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -64841,8 +64817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB843"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:P164"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -64873,24 +64849,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="141" t="s">
         <v>3446</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
       <c r="Q1" s="59"/>
       <c r="R1" s="60"/>
       <c r="S1" s="61"/>
@@ -64934,7 +64910,7 @@
       <c r="C3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="142" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="135" t="s">
@@ -64944,47 +64920,47 @@
       <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="157" t="s">
+      <c r="K3" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="144" t="s">
+      <c r="L3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="144" t="s">
+      <c r="M3" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="147" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="146" t="s">
+      <c r="P3" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="148" t="s">
+      <c r="Q3" s="156" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="70"/>
-      <c r="S3" s="150">
+      <c r="S3" s="158">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="142" t="s">
+      <c r="T3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="143" t="s">
+      <c r="V3" s="153" t="s">
         <v>20</v>
       </c>
     </row>
@@ -64992,29 +64968,29 @@
       <c r="A4" s="135"/>
       <c r="B4" s="135"/>
       <c r="C4" s="135"/>
-      <c r="D4" s="152"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="135"/>
       <c r="F4" s="71"/>
       <c r="G4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
       <c r="O4" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="149"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="157"/>
       <c r="R4" s="70"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="143"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="153"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="56">
@@ -67781,65 +67757,70 @@
         <f t="shared" si="8"/>
         <v>108.6</v>
       </c>
-      <c r="P50" s="75">
+      <c r="P50" s="79">
+        <v>108.65</v>
+      </c>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="28">
+        <f>SUM(P50:P52)</f>
         <v>314.75</v>
       </c>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="83"/>
+      <c r="S50" s="75">
+        <v>314.75</v>
+      </c>
       <c r="T50" s="83"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A51" s="159">
+      <c r="A51" s="56">
         <v>47</v>
       </c>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="3" t="s">
         <v>3788</v>
       </c>
-      <c r="C51" s="161" t="s">
+      <c r="C51" s="26" t="s">
         <v>3497</v>
       </c>
-      <c r="D51" s="160" t="s">
+      <c r="D51" s="3" t="s">
         <v>1812</v>
       </c>
-      <c r="E51" s="162" t="s">
+      <c r="E51" s="74" t="s">
         <v>1813</v>
       </c>
-      <c r="F51" s="162" t="s">
+      <c r="F51" s="74" t="s">
         <v>1814</v>
       </c>
-      <c r="G51" s="160" t="s">
+      <c r="G51" s="3" t="s">
         <v>3222</v>
       </c>
-      <c r="H51" s="163">
+      <c r="H51" s="5">
         <v>105</v>
       </c>
-      <c r="I51" s="164">
+      <c r="I51" s="75">
         <v>7.35</v>
       </c>
-      <c r="J51" s="165"/>
-      <c r="K51" s="164">
+      <c r="J51" s="76"/>
+      <c r="K51" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L51" s="164">
+      <c r="L51" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M51" s="166">
+      <c r="M51" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N51" s="164">
+      <c r="N51" s="75">
         <f t="shared" si="7"/>
         <v>7.35</v>
       </c>
-      <c r="O51" s="164">
+      <c r="O51" s="75">
         <f t="shared" si="8"/>
         <v>112.35</v>
       </c>
-      <c r="P51" s="164">
-        <v>0</v>
+      <c r="P51" s="75">
+        <v>112.35</v>
       </c>
       <c r="Q51" s="77"/>
       <c r="R51" s="78"/>
@@ -67847,58 +67828,58 @@
       <c r="T51" s="81"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A52" s="159">
+      <c r="A52" s="56">
         <v>48</v>
       </c>
-      <c r="B52" s="160" t="s">
+      <c r="B52" s="3" t="s">
         <v>3788</v>
       </c>
-      <c r="C52" s="161" t="s">
+      <c r="C52" s="26" t="s">
         <v>3498</v>
       </c>
-      <c r="D52" s="160" t="s">
+      <c r="D52" s="3" t="s">
         <v>1812</v>
       </c>
-      <c r="E52" s="162" t="s">
+      <c r="E52" s="74" t="s">
         <v>1813</v>
       </c>
-      <c r="F52" s="162" t="s">
+      <c r="F52" s="74" t="s">
         <v>1814</v>
       </c>
-      <c r="G52" s="160" t="s">
+      <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="163">
-        <v>0</v>
-      </c>
-      <c r="I52" s="164">
-        <v>0</v>
-      </c>
-      <c r="J52" s="165">
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="75">
+        <v>0</v>
+      </c>
+      <c r="J52" s="76">
         <v>25</v>
       </c>
-      <c r="K52" s="164">
+      <c r="K52" s="75">
         <f t="shared" si="4"/>
         <v>87.5</v>
       </c>
-      <c r="L52" s="164">
+      <c r="L52" s="75">
         <f t="shared" si="5"/>
         <v>6.12</v>
       </c>
-      <c r="M52" s="166">
+      <c r="M52" s="6">
         <f t="shared" si="6"/>
         <v>93.62</v>
       </c>
-      <c r="N52" s="164">
+      <c r="N52" s="75">
         <f t="shared" si="7"/>
         <v>6.12</v>
       </c>
-      <c r="O52" s="164">
+      <c r="O52" s="75">
         <f t="shared" si="8"/>
         <v>93.62</v>
       </c>
-      <c r="P52" s="164">
-        <v>0</v>
+      <c r="P52" s="75">
+        <v>93.75</v>
       </c>
       <c r="Q52" s="77"/>
       <c r="R52" s="78"/>
@@ -68072,69 +68053,74 @@
         <f t="shared" si="8"/>
         <v>26.21</v>
       </c>
-      <c r="P55" s="75">
+      <c r="P55" s="79">
+        <v>26.25</v>
+      </c>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="28">
+        <f>SUM(P55:P56)</f>
         <v>48.75</v>
       </c>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="78"/>
-      <c r="S55" s="81"/>
+      <c r="S55" s="75">
+        <v>48.75</v>
+      </c>
       <c r="T55" s="81"/>
       <c r="U55" s="81"/>
       <c r="V55" s="83"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A56" s="159">
+      <c r="A56" s="56">
         <v>52</v>
       </c>
-      <c r="B56" s="160" t="s">
+      <c r="B56" s="3" t="s">
         <v>3788</v>
       </c>
-      <c r="C56" s="161" t="s">
+      <c r="C56" s="26" t="s">
         <v>3502</v>
       </c>
-      <c r="D56" s="160" t="s">
+      <c r="D56" s="3" t="s">
         <v>1792</v>
       </c>
-      <c r="E56" s="162" t="s">
+      <c r="E56" s="74" t="s">
         <v>1793</v>
       </c>
-      <c r="F56" s="162" t="s">
+      <c r="F56" s="74" t="s">
         <v>1794</v>
       </c>
-      <c r="G56" s="160" t="s">
+      <c r="G56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H56" s="163">
-        <v>0</v>
-      </c>
-      <c r="I56" s="164">
-        <v>0</v>
-      </c>
-      <c r="J56" s="165">
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="75">
+        <v>0</v>
+      </c>
+      <c r="J56" s="76">
         <v>6</v>
       </c>
-      <c r="K56" s="164">
+      <c r="K56" s="75">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="L56" s="164">
+      <c r="L56" s="75">
         <f t="shared" si="5"/>
         <v>1.47</v>
       </c>
-      <c r="M56" s="166">
+      <c r="M56" s="6">
         <f t="shared" si="6"/>
         <v>22.47</v>
       </c>
-      <c r="N56" s="164">
+      <c r="N56" s="75">
         <f t="shared" si="7"/>
         <v>1.47</v>
       </c>
-      <c r="O56" s="164">
+      <c r="O56" s="75">
         <f t="shared" si="8"/>
         <v>22.47</v>
       </c>
-      <c r="P56" s="164">
-        <v>0</v>
+      <c r="P56" s="75">
+        <v>22.5</v>
       </c>
       <c r="Q56" s="84"/>
       <c r="R56" s="78"/>
@@ -74613,69 +74599,74 @@
         <f t="shared" ref="O163:O226" si="24">ROUNDDOWN(H163+I163+M163,2)</f>
         <v>63.66</v>
       </c>
-      <c r="P163" s="75">
+      <c r="P163" s="79">
+        <v>63.75</v>
+      </c>
+      <c r="Q163" s="84"/>
+      <c r="R163" s="89">
+        <f>SUM(P163:P164)</f>
         <v>120</v>
       </c>
-      <c r="Q163" s="84"/>
-      <c r="R163" s="86"/>
-      <c r="S163" s="83"/>
+      <c r="S163" s="75">
+        <v>120</v>
+      </c>
       <c r="T163" s="83"/>
       <c r="U163" s="83"/>
       <c r="V163" s="83"/>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A164" s="159">
+      <c r="A164" s="56">
         <v>160</v>
       </c>
-      <c r="B164" s="160" t="s">
+      <c r="B164" s="3" t="s">
         <v>3791</v>
       </c>
-      <c r="C164" s="161" t="s">
+      <c r="C164" s="26" t="s">
         <v>3610</v>
       </c>
-      <c r="D164" s="160" t="s">
+      <c r="D164" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E164" s="162" t="s">
+      <c r="E164" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="F164" s="162" t="s">
+      <c r="F164" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="G164" s="160" t="s">
+      <c r="G164" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H164" s="163">
-        <v>0</v>
-      </c>
-      <c r="I164" s="164">
-        <v>0</v>
-      </c>
-      <c r="J164" s="165">
+      <c r="H164" s="5">
+        <v>0</v>
+      </c>
+      <c r="I164" s="75">
+        <v>0</v>
+      </c>
+      <c r="J164" s="76">
         <v>15</v>
       </c>
-      <c r="K164" s="164">
+      <c r="K164" s="75">
         <f t="shared" si="20"/>
         <v>52.5</v>
       </c>
-      <c r="L164" s="164">
+      <c r="L164" s="75">
         <f t="shared" si="21"/>
         <v>3.67</v>
       </c>
-      <c r="M164" s="166">
+      <c r="M164" s="6">
         <f t="shared" si="22"/>
         <v>56.17</v>
       </c>
-      <c r="N164" s="164">
+      <c r="N164" s="75">
         <f t="shared" si="23"/>
         <v>3.67</v>
       </c>
-      <c r="O164" s="164">
+      <c r="O164" s="75">
         <f t="shared" si="24"/>
         <v>56.17</v>
       </c>
-      <c r="P164" s="164">
-        <v>0</v>
+      <c r="P164" s="75">
+        <v>56.25</v>
       </c>
       <c r="Q164" s="84"/>
       <c r="R164" s="86"/>
@@ -79412,7 +79403,7 @@
       <c r="R243" s="85"/>
       <c r="S243" s="104">
         <f>SUM(S5:S242)</f>
-        <v>2564.5966355140181</v>
+        <v>3048.0966355140176</v>
       </c>
       <c r="T243" s="123">
         <f>SUM(T5:T242)</f>
@@ -79486,6 +79477,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -79496,15 +79496,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79514,8 +79505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -79545,24 +79536,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="141" t="s">
         <v>3447</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
       <c r="Q1" s="59"/>
       <c r="R1" s="126"/>
       <c r="S1" s="110"/>
@@ -79606,7 +79597,7 @@
       <c r="C3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="142" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="135" t="s">
@@ -79616,47 +79607,47 @@
       <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="157" t="s">
+      <c r="K3" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="144" t="s">
+      <c r="L3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="144" t="s">
+      <c r="M3" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="147" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="146" t="s">
+      <c r="P3" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="148" t="s">
+      <c r="Q3" s="156" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="128"/>
-      <c r="S3" s="150">
+      <c r="S3" s="158">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="142" t="s">
+      <c r="T3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="143" t="s">
+      <c r="V3" s="153" t="s">
         <v>20</v>
       </c>
     </row>
@@ -79664,29 +79655,29 @@
       <c r="A4" s="135"/>
       <c r="B4" s="135"/>
       <c r="C4" s="135"/>
-      <c r="D4" s="152"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="135"/>
       <c r="F4" s="112"/>
       <c r="G4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
       <c r="O4" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="149"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="157"/>
       <c r="R4" s="128"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="143"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="153"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="56">
@@ -79993,67 +79984,74 @@
         <f t="shared" si="2"/>
         <v>325.27999999999997</v>
       </c>
-      <c r="P9" s="75">
+      <c r="P9" s="79">
+        <v>325.27999999999997</v>
+      </c>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="44">
+        <f>SUM(P9:P10)</f>
         <v>633.5</v>
       </c>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="81"/>
+      <c r="S9" s="75">
+        <v>633.5</v>
+      </c>
       <c r="T9" s="81"/>
       <c r="U9" s="81"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="159">
+      <c r="A10" s="56">
         <v>6</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="3" t="s">
         <v>3787</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="26" t="s">
         <v>3708</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="E10" s="162" t="s">
+      <c r="E10" s="74" t="s">
         <v>3008</v>
       </c>
-      <c r="F10" s="162" t="s">
+      <c r="F10" s="74" t="s">
         <v>3798</v>
       </c>
-      <c r="G10" s="160" t="s">
+      <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="163">
-        <v>0</v>
-      </c>
-      <c r="I10" s="164">
-        <v>0</v>
-      </c>
-      <c r="J10" s="165">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="75">
+        <v>0</v>
+      </c>
+      <c r="J10" s="76">
         <v>72</v>
       </c>
-      <c r="K10" s="164">
+      <c r="K10" s="75">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="L10" s="164">
+      <c r="L10" s="75">
         <f t="shared" ref="L10:L73" si="3">ROUNDDOWN(K10*7%,2)</f>
         <v>20.16</v>
       </c>
-      <c r="M10" s="166">
+      <c r="M10" s="6">
         <f t="shared" ref="M10:M73" si="4">ROUNDDOWN(K10+L10,2)</f>
         <v>308.16000000000003</v>
       </c>
-      <c r="N10" s="164">
+      <c r="N10" s="75">
         <f t="shared" si="1"/>
         <v>20.16</v>
       </c>
-      <c r="O10" s="164">
+      <c r="O10" s="75">
         <f t="shared" si="2"/>
         <v>308.16000000000003</v>
       </c>
-      <c r="P10" s="164"/>
+      <c r="P10" s="75">
+        <v>308.22000000000003</v>
+      </c>
       <c r="Q10" s="77"/>
       <c r="R10" s="129"/>
     </row>
@@ -84845,7 +84843,7 @@
       <c r="R89" s="130"/>
       <c r="S89" s="104">
         <f>SUM(S5:S88)</f>
-        <v>1869</v>
+        <v>2502.5</v>
       </c>
       <c r="T89" s="123">
         <f>SUM(T5:T88)</f>
@@ -84919,6 +84917,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -84929,15 +84936,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
